--- a/downloaded_files/CMPS102_Tutorial-35484.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35484.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -69,6 +69,33 @@
     <x:t>Peter Asheiaa Shehata Fahmi Younan</x:t>
   </x:si>
   <x:si>
+    <x:t>4250170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حازم عصمت محمود اسماعيل احمد ابوجبل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hazem Essmat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240066</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد شريف سامى محمد امين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ziad sherief sami</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى محمد نور الدين عبدالله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Mohamed Noureldin Abdalla</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240075</x:t>
   </x:si>
   <x:si>
@@ -103,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Abdelrahman Hatem Maghawry awad Omran </x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن سيد عبدالرحيم احمد عطية</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
   </x:si>
   <x:si>
     <x:t>1240235</x:t>
@@ -317,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -625,8 +661,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="27.910625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="40.580625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="32.030625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="42.380625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -836,7 +872,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45912.3657840625</x:v>
+        <x:v>45921.6597929745</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -868,7 +904,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45912.6157400463</x:v>
+        <x:v>45921.4468491898</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -900,7 +936,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.4152185185</x:v>
+        <x:v>45921.5328402778</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -932,7 +968,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6653260417</x:v>
+        <x:v>45912.3657840625</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -964,7 +1000,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4159728819</x:v>
+        <x:v>45912.6157400463</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -996,7 +1032,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4607696759</x:v>
+        <x:v>45909.4152185185</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1028,7 +1064,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.4231055903</x:v>
+        <x:v>45907.6653260417</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1060,7 +1096,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.7457224537</x:v>
+        <x:v>45921.6613886574</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1092,7 +1128,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6722331019</x:v>
+        <x:v>45908.4159728819</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1124,7 +1160,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4170518866</x:v>
+        <x:v>45908.4607696759</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1156,7 +1192,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.3726272338</x:v>
+        <x:v>45908.4231055903</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1188,7 +1224,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.3683926273</x:v>
+        <x:v>45907.7457224537</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1220,7 +1256,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.3761316319</x:v>
+        <x:v>45907.6722331019</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1252,7 +1288,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.5974131597</x:v>
+        <x:v>45909.4170518866</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1284,7 +1320,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45908.4154790856</x:v>
+        <x:v>45912.3726272338</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1301,6 +1337,134 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45912.3683926273</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45912.3761316319</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45909.5974131597</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45908.4154790856</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Tutorial-35484.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35484.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -69,15 +69,6 @@
     <x:t>Peter Asheiaa Shehata Fahmi Younan</x:t>
   </x:si>
   <x:si>
-    <x:t>4250170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حازم عصمت محمود اسماعيل احمد ابوجبل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hazem Essmat</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240066</x:t>
   </x:si>
   <x:si>
@@ -130,15 +121,6 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Abdelrahman Hatem Maghawry awad Omran </x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250178</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن سيد عبدالرحيم احمد عطية</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
   </x:si>
   <x:si>
     <x:t>1240235</x:t>
@@ -353,7 +335,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +635,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -661,8 +643,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="32.030625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="42.380625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="27.910625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.580625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -872,7 +854,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45921.6597929745</x:v>
+        <x:v>45921.4468491898</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -904,7 +886,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45921.4468491898</x:v>
+        <x:v>45921.5328402778</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -936,7 +918,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45921.5328402778</x:v>
+        <x:v>45912.3657840625</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -968,7 +950,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.3657840625</x:v>
+        <x:v>45912.6157400463</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1000,7 +982,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.6157400463</x:v>
+        <x:v>45909.4152185185</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1032,7 +1014,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4152185185</x:v>
+        <x:v>45907.6653260417</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1064,7 +1046,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6653260417</x:v>
+        <x:v>45908.4159728819</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1096,7 +1078,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45921.6613886574</x:v>
+        <x:v>45908.4607696759</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1128,7 +1110,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4159728819</x:v>
+        <x:v>45908.4231055903</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1160,7 +1142,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4607696759</x:v>
+        <x:v>45907.7457224537</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1192,7 +1174,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4231055903</x:v>
+        <x:v>45907.6722331019</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1224,7 +1206,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.7457224537</x:v>
+        <x:v>45909.4170518866</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1256,7 +1238,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6722331019</x:v>
+        <x:v>45912.3726272338</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1288,7 +1270,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4170518866</x:v>
+        <x:v>45912.3683926273</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1320,7 +1302,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.3726272338</x:v>
+        <x:v>45912.3761316319</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1352,7 +1334,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.3683926273</x:v>
+        <x:v>45909.5974131597</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1366,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.3761316319</x:v>
+        <x:v>45908.4154790856</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1401,70 +1383,6 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:20">
-      <x:c r="A23" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="E23" s="3">
-        <x:v>45909.5974131597</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s"/>
-      <x:c r="G23" s="2" t="s"/>
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
-      <x:c r="J23" s="2" t="s"/>
-      <x:c r="K23" s="2" t="s"/>
-      <x:c r="L23" s="2" t="s"/>
-      <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
-      <x:c r="O23" s="2" t="s"/>
-      <x:c r="P23" s="2" t="s"/>
-      <x:c r="Q23" s="2" t="s"/>
-      <x:c r="R23" s="2" t="s"/>
-      <x:c r="S23" s="2" t="s"/>
-      <x:c r="T23" s="2" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E24" s="3">
-        <x:v>45908.4154790856</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Tutorial-35484.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35484.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -69,6 +69,15 @@
     <x:t>Peter Asheiaa Shehata Fahmi Younan</x:t>
   </x:si>
   <x:si>
+    <x:t>4250172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>خالد وليد رمضان فكرى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Khaled Walid Ramadan Fikry</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240066</x:t>
   </x:si>
   <x:si>
@@ -132,6 +141,15 @@
     <x:t>Abdelrahman Mohamed Hamdy Eletreby</x:t>
   </x:si>
   <x:si>
+    <x:t>4250207</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن ناجى سمير النجدى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdulrahman Naji Samir Al-Najdi</x:t>
+  </x:si>
+  <x:si>
     <x:t>2240008</x:t>
   </x:si>
   <x:si>
@@ -141,6 +159,15 @@
     <x:t>Ali eldin</x:t>
   </x:si>
   <x:si>
+    <x:t>4250184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر ابراهيم عبدالحميد ابوالعنين عبدالكريم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Ibrahim Abdel Hamid Abu Al-Anin Abdel Karim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240339</x:t>
   </x:si>
   <x:si>
@@ -148,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>Omar ahmed abdelmaaboud mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250185</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر ايهاب حسين مجاهد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Ihab</x:t>
   </x:si>
   <x:si>
     <x:t>1240117</x:t>
@@ -335,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -643,8 +679,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="27.910625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="40.580625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="31.210625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="46.630625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -854,7 +890,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45921.4468491898</x:v>
+        <x:v>45922.3784859954</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -886,7 +922,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45921.5328402778</x:v>
+        <x:v>45921.4468491898</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -918,7 +954,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.3657840625</x:v>
+        <x:v>45921.5328402778</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -950,7 +986,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.6157400463</x:v>
+        <x:v>45912.3657840625</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -982,7 +1018,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4152185185</x:v>
+        <x:v>45912.6157400463</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1014,7 +1050,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6653260417</x:v>
+        <x:v>45909.4152185185</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1046,7 +1082,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.4159728819</x:v>
+        <x:v>45907.6653260417</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1078,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4607696759</x:v>
+        <x:v>45908.4159728819</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1110,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4231055903</x:v>
+        <x:v>45922.3770388542</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1142,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.7457224537</x:v>
+        <x:v>45908.4607696759</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1174,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6722331019</x:v>
+        <x:v>45922.3800849537</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1206,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4170518866</x:v>
+        <x:v>45908.4231055903</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1238,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.3726272338</x:v>
+        <x:v>45922.3776882292</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1270,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.3683926273</x:v>
+        <x:v>45907.7457224537</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1302,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.3761316319</x:v>
+        <x:v>45907.6722331019</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1334,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.5974131597</x:v>
+        <x:v>45909.4170518866</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1366,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4154790856</x:v>
+        <x:v>45912.3726272338</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1383,6 +1419,134 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45912.3683926273</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45912.3761316319</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45909.5974131597</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45908.4154790856</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Tutorial-35484.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35484.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -238,6 +238,15 @@
   </x:si>
   <x:si>
     <x:t>Nourhan Karim Adel Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف احمد العزب عبده داغر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Ahmed ElAzab Abdo Dagher</x:t>
   </x:si>
   <x:si>
     <x:t>1240172</x:t>
@@ -371,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1498,7 +1507,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.5974131597</x:v>
+        <x:v>45923.456466169</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1530,7 +1539,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4154790856</x:v>
+        <x:v>45909.5974131597</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1547,6 +1556,38 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45908.4154790856</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Tutorial-35484.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35484.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -184,6 +184,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Ihab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد جاد مرشدي عمر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mohamed Gad Morshedy Omar</x:t>
   </x:si>
   <x:si>
     <x:t>1240117</x:t>
@@ -380,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1315,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.7457224537</x:v>
+        <x:v>45925.6680363426</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1347,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6722331019</x:v>
+        <x:v>45907.7457224537</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1379,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4170518866</x:v>
+        <x:v>45907.6722331019</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1411,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.3726272338</x:v>
+        <x:v>45909.4170518866</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1443,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.3683926273</x:v>
+        <x:v>45912.3726272338</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1475,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.3761316319</x:v>
+        <x:v>45912.3683926273</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1507,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45923.456466169</x:v>
+        <x:v>45912.3761316319</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.5974131597</x:v>
+        <x:v>45923.456466169</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1571,7 +1580,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4154790856</x:v>
+        <x:v>45909.5974131597</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1588,6 +1597,38 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45908.4154790856</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Tutorial-35484.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35484.xlsx
@@ -51,22 +51,22 @@
     <x:t>Ahmed mamdouh ahmed mahmoud</x:t>
   </x:si>
   <x:si>
-    <x:t>1240208</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد وائل علي محمد علي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Wael Ali Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240040</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بيتر اشعياء شحاته فهمي يونان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Peter Asheiaa Shehata Fahmi Younan</x:t>
+    <x:t>1240020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد ياسر رمضان ابراهيم والى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Yasser Ramadan Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240038</x:t>
+  </x:si>
+  <x:si>
+    <x:t>بلال حمدى احمد حسين محمد احمد أبو طالب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Belal Hamdy Ahmad</x:t>
   </x:si>
   <x:si>
     <x:t>4250172</x:t>
@@ -186,15 +186,6 @@
     <x:t>Omar Ihab</x:t>
   </x:si>
   <x:si>
-    <x:t>1240244</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد جاد مرشدي عمر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Mohamed Gad Morshedy Omar</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240117</x:t>
   </x:si>
   <x:si>
@@ -202,6 +193,15 @@
   </x:si>
   <x:si>
     <x:t>Amr Mohamed Saied Hassan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240355</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد احمد حامد احمد حامد سليم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Ahmed Hamed Ahmed Hamed Selim</x:t>
   </x:si>
   <x:si>
     <x:t>1240149</x:t>
@@ -697,7 +697,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="31.210625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="34.020625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="46.630625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -844,7 +844,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45909.4168576042</x:v>
+        <x:v>45927.4308987616</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -876,7 +876,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.673544213</x:v>
+        <x:v>45927.4212224537</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -908,7 +908,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45922.3784859954</x:v>
+        <x:v>45927.4879923958</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1324,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45925.6680363426</x:v>
+        <x:v>45907.7457224537</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1356,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.7457224537</x:v>
+        <x:v>45927.4272664352</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>

--- a/downloaded_files/CMPS102_Tutorial-35484.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35484.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -69,6 +69,15 @@
     <x:t>Belal Hamdy Ahmad</x:t>
   </x:si>
   <x:si>
+    <x:t>1240049</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حبيبه عصام كامل على عقل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Habiba essam kamel</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250172</x:t>
   </x:si>
   <x:si>
@@ -184,6 +193,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Ihab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد صلاح الدين محمد عبد الحميد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>omar mohamed salaheldeen</x:t>
   </x:si>
   <x:si>
     <x:t>1240117</x:t>
@@ -389,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -908,7 +926,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.4879923958</x:v>
+        <x:v>45927.7692139699</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -940,7 +958,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45921.4468491898</x:v>
+        <x:v>45927.4879923958</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -972,7 +990,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45921.5328402778</x:v>
+        <x:v>45921.4468491898</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1004,7 +1022,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.3657840625</x:v>
+        <x:v>45921.5328402778</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1036,7 +1054,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.6157400463</x:v>
+        <x:v>45912.3657840625</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1068,7 +1086,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4152185185</x:v>
+        <x:v>45912.6157400463</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1100,7 +1118,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6653260417</x:v>
+        <x:v>45909.4152185185</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1132,7 +1150,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4159728819</x:v>
+        <x:v>45907.6653260417</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1164,7 +1182,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45922.3770388542</x:v>
+        <x:v>45908.4159728819</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1196,7 +1214,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4607696759</x:v>
+        <x:v>45922.3770388542</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1228,7 +1246,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45922.3800849537</x:v>
+        <x:v>45908.4607696759</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1260,7 +1278,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4231055903</x:v>
+        <x:v>45922.3800849537</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1292,7 +1310,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45922.3776882292</x:v>
+        <x:v>45908.4231055903</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1324,7 +1342,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.7457224537</x:v>
+        <x:v>45922.3776882292</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1356,7 +1374,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4272664352</x:v>
+        <x:v>45927.7643141204</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1388,7 +1406,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6722331019</x:v>
+        <x:v>45907.7457224537</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1420,7 +1438,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4170518866</x:v>
+        <x:v>45927.4272664352</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1452,7 +1470,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.3726272338</x:v>
+        <x:v>45907.6722331019</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1484,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.3683926273</x:v>
+        <x:v>45909.4170518866</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1516,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.3761316319</x:v>
+        <x:v>45912.3726272338</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1548,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45923.456466169</x:v>
+        <x:v>45912.3683926273</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1580,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.5974131597</x:v>
+        <x:v>45912.3761316319</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1612,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4154790856</x:v>
+        <x:v>45923.456466169</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1629,6 +1647,70 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45909.5974131597</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45908.4154790856</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Tutorial-35484.xlsx
+++ b/downloaded_files/CMPS102_Tutorial-35484.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -220,6 +220,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ahmed Hamed Ahmed Hamed Selim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250196</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود يوسف على امين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Youssef Ali Amin</x:t>
   </x:si>
   <x:si>
     <x:t>1240149</x:t>
@@ -407,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1470,7 +1479,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6722331019</x:v>
+        <x:v>45928.5310535532</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1502,7 +1511,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4170518866</x:v>
+        <x:v>45907.6722331019</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1543,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.3726272338</x:v>
+        <x:v>45909.4170518866</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1575,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.3683926273</x:v>
+        <x:v>45912.3726272338</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1598,7 +1607,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.3761316319</x:v>
+        <x:v>45912.3683926273</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1630,7 +1639,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45923.456466169</x:v>
+        <x:v>45912.3761316319</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1662,7 +1671,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.5974131597</x:v>
+        <x:v>45923.456466169</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1694,7 +1703,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4154790856</x:v>
+        <x:v>45909.5974131597</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1711,6 +1720,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45908.4154790856</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
